--- a/6 新版工具/6.0/大号/京瓷详情.xlsx
+++ b/6 新版工具/6.0/大号/京瓷详情.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网站所有资料" sheetId="4" r:id="rId1"/>
@@ -12929,16 +12929,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -13227,25 +13227,25 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.875" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="13" max="14" width="8.875" style="3"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
-    <col min="16" max="16" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>514</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -13549,7 +13549,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -14039,7 +14039,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -14217,7 +14217,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="T17" s="7"/>
     </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -14335,7 +14335,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
     </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -14517,7 +14517,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
     </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -14577,7 +14577,7 @@
       </c>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -14637,7 +14637,7 @@
       </c>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -14695,7 +14695,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
     </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -14813,7 +14813,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
     </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -15611,7 +15611,7 @@
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
     </row>
-    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -15857,7 +15857,7 @@
       </c>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -15915,7 +15915,7 @@
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
     </row>
-    <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -16035,7 +16035,7 @@
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
     </row>
-    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -16217,7 +16217,7 @@
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
     </row>
-    <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -16399,7 +16399,7 @@
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
     </row>
-    <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -16457,7 +16457,7 @@
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
     </row>
-    <row r="54" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -16515,7 +16515,7 @@
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
     </row>
-    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -16821,7 +16821,7 @@
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
     </row>
-    <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -16881,7 +16881,7 @@
       </c>
       <c r="T60" s="7"/>
     </row>
-    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -16939,7 +16939,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
     </row>
-    <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -16997,7 +16997,7 @@
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
     </row>
-    <row r="63" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -17055,7 +17055,7 @@
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
     </row>
-    <row r="64" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -17113,7 +17113,7 @@
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
     </row>
-    <row r="65" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -17171,7 +17171,7 @@
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
     </row>
-    <row r="66" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -17229,7 +17229,7 @@
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
     </row>
-    <row r="67" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="T67" s="7"/>
     </row>
-    <row r="68" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -17411,7 +17411,7 @@
       </c>
       <c r="T69" s="7"/>
     </row>
-    <row r="70" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -17655,7 +17655,7 @@
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
     </row>
-    <row r="74" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -17901,7 +17901,7 @@
       </c>
       <c r="T77" s="7"/>
     </row>
-    <row r="78" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -17959,7 +17959,7 @@
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
     </row>
-    <row r="79" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -18019,7 +18019,7 @@
       </c>
       <c r="T79" s="7"/>
     </row>
-    <row r="80" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="T85" s="7"/>
     </row>
-    <row r="86" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -18447,7 +18447,7 @@
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
     </row>
-    <row r="87" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -18629,7 +18629,7 @@
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
     </row>
-    <row r="90" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -18751,7 +18751,7 @@
       </c>
       <c r="T91" s="7"/>
     </row>
-    <row r="92" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="T94" s="7"/>
     </row>
-    <row r="95" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -18993,7 +18993,7 @@
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
     </row>
-    <row r="96" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -19301,7 +19301,7 @@
       </c>
       <c r="T100" s="7"/>
     </row>
-    <row r="101" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="T103" s="7"/>
     </row>
-    <row r="104" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -19605,7 +19605,7 @@
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
     </row>
-    <row r="106" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -19665,7 +19665,7 @@
       </c>
       <c r="T106" s="7"/>
     </row>
-    <row r="107" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -19723,7 +19723,7 @@
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
     </row>
-    <row r="108" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -19781,7 +19781,7 @@
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
     </row>
-    <row r="109" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -20087,7 +20087,7 @@
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
     </row>
-    <row r="114" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -20145,7 +20145,7 @@
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
     </row>
-    <row r="115" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -20203,7 +20203,7 @@
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
     </row>
-    <row r="116" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -20261,7 +20261,7 @@
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
     </row>
-    <row r="117" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -20319,7 +20319,7 @@
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
     </row>
-    <row r="118" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -20377,7 +20377,7 @@
       <c r="S118" s="7"/>
       <c r="T118" s="7"/>
     </row>
-    <row r="119" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -20435,7 +20435,7 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
     </row>
-    <row r="120" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -20557,7 +20557,7 @@
       </c>
       <c r="T121" s="7"/>
     </row>
-    <row r="122" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -20619,7 +20619,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -20741,7 +20741,7 @@
       </c>
       <c r="T124" s="7"/>
     </row>
-    <row r="125" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -21237,7 +21237,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -21359,7 +21359,7 @@
       </c>
       <c r="T134" s="7"/>
     </row>
-    <row r="135" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="T136" s="7"/>
     </row>
-    <row r="137" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -21665,7 +21665,7 @@
       </c>
       <c r="T139" s="7"/>
     </row>
-    <row r="140" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -21727,7 +21727,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -21789,7 +21789,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -21849,7 +21849,7 @@
       </c>
       <c r="T142" s="7"/>
     </row>
-    <row r="143" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -21973,7 +21973,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -22095,7 +22095,7 @@
       </c>
       <c r="T146" s="7"/>
     </row>
-    <row r="147" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -22277,7 +22277,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -22337,7 +22337,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="T151" s="7"/>
     </row>
-    <row r="152" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -22453,7 +22453,7 @@
       </c>
       <c r="T152" s="7"/>
     </row>
-    <row r="153" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -22513,7 +22513,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -22571,7 +22571,7 @@
       </c>
       <c r="T154" s="7"/>
     </row>
-    <row r="155" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -22689,7 +22689,7 @@
       </c>
       <c r="T156" s="7"/>
     </row>
-    <row r="157" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -22747,7 +22747,7 @@
       </c>
       <c r="T157" s="7"/>
     </row>
-    <row r="158" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -22803,7 +22803,7 @@
       <c r="S158" s="7"/>
       <c r="T158" s="7"/>
     </row>
-    <row r="159" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -22921,7 +22921,7 @@
       <c r="S160" s="7"/>
       <c r="T160" s="7"/>
     </row>
-    <row r="161" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -23037,7 +23037,7 @@
       <c r="S162" s="7"/>
       <c r="T162" s="7"/>
     </row>
-    <row r="163" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -23095,7 +23095,7 @@
       <c r="S163" s="7"/>
       <c r="T163" s="7"/>
     </row>
-    <row r="164" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -23153,7 +23153,7 @@
       <c r="S164" s="7"/>
       <c r="T164" s="7"/>
     </row>
-    <row r="165" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -23211,7 +23211,7 @@
       <c r="S165" s="7"/>
       <c r="T165" s="7"/>
     </row>
-    <row r="166" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -23269,7 +23269,7 @@
       <c r="S166" s="7"/>
       <c r="T166" s="7"/>
     </row>
-    <row r="167" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -23331,7 +23331,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -23393,7 +23393,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -23451,7 +23451,7 @@
       <c r="S169" s="7"/>
       <c r="T169" s="7"/>
     </row>
-    <row r="170" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -23507,7 +23507,7 @@
       <c r="S170" s="7"/>
       <c r="T170" s="7"/>
     </row>
-    <row r="171" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -23565,7 +23565,7 @@
       <c r="S171" s="7"/>
       <c r="T171" s="7"/>
     </row>
-    <row r="172" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -23623,7 +23623,7 @@
       <c r="S172" s="7"/>
       <c r="T172" s="7"/>
     </row>
-    <row r="173" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -23743,11 +23743,11 @@
       </c>
       <c r="T174" s="7"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
     </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H184" s="3"/>
     </row>
   </sheetData>
@@ -23765,29 +23765,29 @@
   <dimension ref="A1:T147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C56"/>
+      <selection activeCell="P99" sqref="P99:P111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="3" customWidth="1"/>
     <col min="12" max="14" width="9" style="3"/>
-    <col min="15" max="15" width="17.125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" style="3" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>514</v>
       </c>
@@ -23849,7 +23849,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -23911,7 +23911,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -24033,7 +24033,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -24091,7 +24091,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -24153,7 +24153,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -24213,7 +24213,7 @@
       </c>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -24337,7 +24337,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -24399,7 +24399,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -24461,7 +24461,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -24581,7 +24581,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -24641,7 +24641,7 @@
       </c>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -24701,7 +24701,7 @@
       </c>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -24759,7 +24759,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -24819,7 +24819,7 @@
       </c>
       <c r="T17" s="7"/>
     </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -24877,7 +24877,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
     </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -25001,7 +25001,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -25059,7 +25059,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
     </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -25119,7 +25119,7 @@
       </c>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -25179,7 +25179,7 @@
       </c>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -25237,7 +25237,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
     </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -25297,7 +25297,7 @@
       </c>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -25355,7 +25355,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
     </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -25479,7 +25479,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -25541,7 +25541,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -25603,7 +25603,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -25727,7 +25727,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -25847,7 +25847,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -26153,7 +26153,7 @@
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
     </row>
-    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -26215,7 +26215,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -26339,7 +26339,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -26399,7 +26399,7 @@
       </c>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -26457,7 +26457,7 @@
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
     </row>
-    <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -26519,7 +26519,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -26577,7 +26577,7 @@
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
     </row>
-    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -26639,7 +26639,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -26759,7 +26759,7 @@
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
     </row>
-    <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -26821,7 +26821,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -26883,7 +26883,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -26941,7 +26941,7 @@
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
     </row>
-    <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -26999,7 +26999,7 @@
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
     </row>
-    <row r="54" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -27057,7 +27057,7 @@
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
     </row>
-    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -27119,7 +27119,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -27181,7 +27181,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -27243,7 +27243,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -27305,7 +27305,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -27363,7 +27363,7 @@
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
     </row>
-    <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -27423,7 +27423,7 @@
       </c>
       <c r="T60" s="7"/>
     </row>
-    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -27481,7 +27481,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
     </row>
-    <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -27539,7 +27539,7 @@
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
     </row>
-    <row r="63" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -27597,7 +27597,7 @@
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
     </row>
-    <row r="64" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -27655,7 +27655,7 @@
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
     </row>
-    <row r="65" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -27713,7 +27713,7 @@
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
     </row>
-    <row r="66" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -27771,7 +27771,7 @@
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
     </row>
-    <row r="67" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -27831,7 +27831,7 @@
       </c>
       <c r="T67" s="7"/>
     </row>
-    <row r="68" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -27893,7 +27893,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -27953,7 +27953,7 @@
       </c>
       <c r="T69" s="7"/>
     </row>
-    <row r="70" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -28077,7 +28077,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -28139,7 +28139,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -28197,7 +28197,7 @@
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
     </row>
-    <row r="74" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -28259,7 +28259,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -28321,7 +28321,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="T77" s="7"/>
     </row>
-    <row r="78" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -28501,7 +28501,7 @@
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
     </row>
-    <row r="79" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -28561,7 +28561,7 @@
       </c>
       <c r="T79" s="7"/>
     </row>
-    <row r="80" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -28623,7 +28623,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -28685,7 +28685,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -28809,7 +28809,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -28871,7 +28871,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -28931,7 +28931,7 @@
       </c>
       <c r="T85" s="7"/>
     </row>
-    <row r="86" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -28989,7 +28989,7 @@
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
     </row>
-    <row r="87" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -29051,7 +29051,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -29113,7 +29113,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -29171,7 +29171,7 @@
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
     </row>
-    <row r="90" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -29233,7 +29233,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -29293,7 +29293,7 @@
       </c>
       <c r="T91" s="7"/>
     </row>
-    <row r="92" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -29355,7 +29355,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -29417,7 +29417,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -29477,7 +29477,7 @@
       </c>
       <c r="T94" s="7"/>
     </row>
-    <row r="95" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -29535,7 +29535,7 @@
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
     </row>
-    <row r="96" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -29597,7 +29597,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -29659,7 +29659,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -29721,7 +29721,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -29783,7 +29783,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -29843,7 +29843,7 @@
       </c>
       <c r="T100" s="7"/>
     </row>
-    <row r="101" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -29905,7 +29905,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -30027,7 +30027,7 @@
       </c>
       <c r="T103" s="7"/>
     </row>
-    <row r="104" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -30089,7 +30089,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -30147,7 +30147,7 @@
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
     </row>
-    <row r="106" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -30207,7 +30207,7 @@
       </c>
       <c r="T106" s="7"/>
     </row>
-    <row r="107" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -30265,7 +30265,7 @@
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
     </row>
-    <row r="108" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -30323,7 +30323,7 @@
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
     </row>
-    <row r="109" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -30385,7 +30385,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -30509,7 +30509,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -30629,7 +30629,7 @@
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
     </row>
-    <row r="114" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -30687,7 +30687,7 @@
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
     </row>
-    <row r="115" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -30745,7 +30745,7 @@
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
     </row>
-    <row r="116" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -30803,7 +30803,7 @@
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
     </row>
-    <row r="117" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -30861,7 +30861,7 @@
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
     </row>
-    <row r="118" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -30919,7 +30919,7 @@
       <c r="S118" s="7"/>
       <c r="T118" s="7"/>
     </row>
-    <row r="119" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -30977,7 +30977,7 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
     </row>
-    <row r="120" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>147</v>
       </c>
@@ -31037,7 +31037,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>148</v>
       </c>
@@ -31097,7 +31097,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>149</v>
       </c>
@@ -31157,7 +31157,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>150</v>
       </c>
@@ -31215,7 +31215,7 @@
       </c>
       <c r="T123" s="7"/>
     </row>
-    <row r="124" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>151</v>
       </c>
@@ -31273,7 +31273,7 @@
       </c>
       <c r="T124" s="7"/>
     </row>
-    <row r="125" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>152</v>
       </c>
@@ -31333,7 +31333,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>153</v>
       </c>
@@ -31391,7 +31391,7 @@
       </c>
       <c r="T126" s="7"/>
     </row>
-    <row r="127" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>154</v>
       </c>
@@ -31451,7 +31451,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>155</v>
       </c>
@@ -31509,7 +31509,7 @@
       </c>
       <c r="T128" s="7"/>
     </row>
-    <row r="129" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>156</v>
       </c>
@@ -31567,7 +31567,7 @@
       </c>
       <c r="T129" s="7"/>
     </row>
-    <row r="130" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>157</v>
       </c>
@@ -31623,7 +31623,7 @@
       <c r="S130" s="7"/>
       <c r="T130" s="7"/>
     </row>
-    <row r="131" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>158</v>
       </c>
@@ -31683,7 +31683,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>159</v>
       </c>
@@ -31741,7 +31741,7 @@
       <c r="S132" s="7"/>
       <c r="T132" s="7"/>
     </row>
-    <row r="133" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>160</v>
       </c>
@@ -31801,7 +31801,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>161</v>
       </c>
@@ -31857,7 +31857,7 @@
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
     </row>
-    <row r="135" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>162</v>
       </c>
@@ -31915,7 +31915,7 @@
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
     </row>
-    <row r="136" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>163</v>
       </c>
@@ -31973,7 +31973,7 @@
       <c r="S136" s="7"/>
       <c r="T136" s="7"/>
     </row>
-    <row r="137" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>164</v>
       </c>
@@ -32031,7 +32031,7 @@
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
     </row>
-    <row r="138" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>165</v>
       </c>
@@ -32089,7 +32089,7 @@
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
     </row>
-    <row r="139" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>166</v>
       </c>
@@ -32151,7 +32151,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>167</v>
       </c>
@@ -32213,7 +32213,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>168</v>
       </c>
@@ -32271,7 +32271,7 @@
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
     </row>
-    <row r="142" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>169</v>
       </c>
@@ -32327,7 +32327,7 @@
       <c r="S142" s="7"/>
       <c r="T142" s="7"/>
     </row>
-    <row r="143" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>170</v>
       </c>
@@ -32385,7 +32385,7 @@
       <c r="S143" s="7"/>
       <c r="T143" s="7"/>
     </row>
-    <row r="144" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>171</v>
       </c>
@@ -32443,7 +32443,7 @@
       <c r="S144" s="7"/>
       <c r="T144" s="7"/>
     </row>
-    <row r="145" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>172</v>
       </c>
@@ -32503,7 +32503,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>173</v>
       </c>
@@ -32563,15 +32563,15 @@
       </c>
       <c r="T146" s="7"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S147" s="6"/>
       <c r="T147" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
